--- a/target/classes/companies/pharma/JohnsonAndJohnson/JNJ_JohnsonAndJohnson.xlsx
+++ b/target/classes/companies/pharma/JohnsonAndJohnson/JNJ_JohnsonAndJohnson.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1F3590-E7E3-434C-88AA-A46C3B1A8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -4671,6 +4671,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="874567888"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -19782,9 +19783,9 @@
       <c r="C44" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="56" t="str">
-        <f>V11</f>
-        <v>L</v>
+      <c r="D44" s="55" t="str">
+        <f>U11</f>
+        <v>K</v>
       </c>
       <c r="E44" s="101">
         <v>0.75</v>
@@ -19864,7 +19865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
@@ -19883,7 +19884,7 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20123,7 +20124,7 @@
   <dimension ref="B3:L74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20174,7 +20175,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="13" t="n">
-        <f>AVERAGE(C28:L28)</f>
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.18420515503351448</v>
       </c>
     </row>
@@ -21561,8 +21562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/target/classes/companies/pharma/JohnsonAndJohnson/JNJ_JohnsonAndJohnson.xlsx
+++ b/target/classes/companies/pharma/JohnsonAndJohnson/JNJ_JohnsonAndJohnson.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18693,7 +18693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20123,8 +20123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20201,7 +20201,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="67" t="n">
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -21054,45 +21054,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21" t="n">
-        <f>L25*(1+C46)</f>
-        <v>29608.30499670744</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <f>C45*(1+D46)</f>
-        <v>29756.346518381913</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>29905.12824764824</v>
+      <c r="C45" s="60" t="n">
+        <v>34108.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>36293.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>37576.0</v>
       </c>
       <c r="F45" s="21" t="n">
-        <f t="shared" si="8"/>
-        <v>30054.653885544245</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>38327.5199832024</v>
       </c>
       <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>30204.927151613014</v>
+        <v>39094.0703657329</v>
       </c>
       <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>30355.951783995362</v>
+        <v>39875.95175557134</v>
       </c>
       <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>30507.731539522796</v>
+        <v>40673.47077285698</v>
       </c>
       <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>30660.27019381087</v>
+        <v>41486.94017013188</v>
       </c>
       <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>30813.57154135336</v>
+        <v>42316.67895498863</v>
       </c>
       <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>30967.639395616443</v>
+        <v>43163.01251517155</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21101,43 +21098,43 @@
       </c>
       <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>0.004999999888241291</v>
+        <v>0.019999999552965164</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21434,7 +21431,7 @@
       </c>
       <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>402579.3121430132</v>
+        <v>561119.1626972295</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21443,7 +21440,7 @@
       </c>
       <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>200188.97149386274</v>
+        <v>279025.43592690036</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21456,7 +21453,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>368160.07399931335</v>
+        <v>446996.53843235096</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21466,7 +21463,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>140.02377948310573</v>
+        <v>170.007964327169</v>
       </c>
     </row>
   </sheetData>
@@ -21562,7 +21559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
